--- a/rest_traitee.xlsx
+++ b/rest_traitee.xlsx
@@ -52,39 +52,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="162">
   <si>
-    <t>خارج الولاية</t>
+    <t>مساكن</t>
   </si>
   <si>
-    <t>ريان الرياحي</t>
+    <t>مجدي الرقيق</t>
   </si>
   <si>
-    <t>17828007387</t>
+    <t>015755045245</t>
   </si>
   <si>
-    <t>0</t>
+    <t>الكنائس</t>
   </si>
   <si>
-    <t>تحديد المدرسة المرغوب فيها</t>
+    <t>2مارس مساكن</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>mouch f decision</t>
-  </si>
-  <si>
-    <t>الزاوية</t>
-  </si>
-  <si>
-    <t>ياسين السويسي</t>
-  </si>
-  <si>
-    <t>17543013307</t>
-  </si>
-  <si>
-    <t>842814</t>
+    <t>الزميل شفيق</t>
   </si>
   <si>
     <t>مع الموافقة</t>
@@ -93,199 +78,466 @@
     <t>mochkla f prev ecole</t>
   </si>
   <si>
+    <t>سيدي عبد الحميد</t>
+  </si>
+  <si>
+    <t>محمد أمين المنصوري</t>
+  </si>
+  <si>
+    <t>015483037340</t>
+  </si>
+  <si>
+    <t>خارج الولاية</t>
+  </si>
+  <si>
+    <t>الام زميلة</t>
+  </si>
+  <si>
+    <t>سوسة جوهرة</t>
+  </si>
+  <si>
+    <t>اسراء نوار</t>
+  </si>
+  <si>
+    <t>015883075949</t>
+  </si>
+  <si>
+    <t>مدرسة خاصة</t>
+  </si>
+  <si>
+    <t>خزامة الغربية</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>سوسة الرياض</t>
+  </si>
+  <si>
+    <t>يزيد عبداوي</t>
+  </si>
+  <si>
+    <t>015865046174</t>
+  </si>
+  <si>
+    <t>حي السعادة1 الفحص</t>
+  </si>
+  <si>
+    <t>الشابي الرياض5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدير مدرسة حي السعادة1 الفحص </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ياسين قريسة </t>
+  </si>
+  <si>
+    <t>016010068248</t>
+  </si>
+  <si>
+    <t>المنستير</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سيدي القنطاوي حمام سوسة</t>
+  </si>
+  <si>
     <t>جوهرة</t>
   </si>
   <si>
-    <t>سندرا الشايب</t>
+    <t>رجينة الصبري</t>
   </si>
   <si>
-    <t>017381026741</t>
+    <t>015762066025</t>
   </si>
   <si>
-    <t>843004</t>
+    <t xml:space="preserve">  الحكيم قرول </t>
   </si>
   <si>
-    <t>842617</t>
+    <t xml:space="preserve">الباب الشمالي </t>
   </si>
   <si>
-    <t>محمد أمين الأزرق</t>
+    <t>mouch mouwef9a</t>
   </si>
   <si>
-    <t>017354022648</t>
+    <t>صفوان الحاج الطاهر</t>
   </si>
   <si>
-    <t>842607</t>
+    <t>015825058431</t>
   </si>
   <si>
-    <t>842602</t>
+    <t xml:space="preserve"> بوحسينة 1</t>
   </si>
   <si>
-    <t>سلمى الرحال</t>
+    <t xml:space="preserve"> الإمتياز الزاوية</t>
   </si>
   <si>
-    <t>017183016092</t>
+    <t xml:space="preserve">  العهد الجديد زاوية سوسة</t>
   </si>
   <si>
-    <t>842407</t>
+    <t>القلعة الكبرى</t>
   </si>
   <si>
-    <t>842613</t>
+    <t>المنصف بلعيد</t>
   </si>
   <si>
-    <t>سارة النوالي</t>
+    <t>15957078431</t>
   </si>
   <si>
-    <t>017572008829</t>
+    <t xml:space="preserve">  الحي الشرقي القلعة الكبرى</t>
   </si>
   <si>
-    <t>842606</t>
+    <t>الولي معلم بالمدرسة</t>
   </si>
   <si>
-    <t>842616</t>
+    <t>محمد عزيز بن عمار</t>
+  </si>
+  <si>
+    <t>015856052860</t>
+  </si>
+  <si>
+    <t>2 مارس بوفيشة</t>
+  </si>
+  <si>
+    <t>محمد ضياء عطي</t>
+  </si>
+  <si>
+    <t>015724007366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  شط مريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد زكرياء قرمة </t>
+  </si>
+  <si>
+    <t>016037064661</t>
+  </si>
+  <si>
+    <t>الزاوية القصيبة الثريات</t>
+  </si>
+  <si>
+    <t>نظمي المثناني</t>
+  </si>
+  <si>
+    <t>015166047202</t>
+  </si>
+  <si>
+    <t>علي البلهوان</t>
+  </si>
+  <si>
+    <t>حي الرياض</t>
+  </si>
+  <si>
+    <t>مؤمون القروي</t>
+  </si>
+  <si>
+    <t>015959040992</t>
+  </si>
+  <si>
+    <t>الحمد الزاوية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  طارق ابن زياد حي الرياض</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ابن شرف حي الرياض</t>
+  </si>
+  <si>
+    <t>معتز الوسلاتي</t>
+  </si>
+  <si>
+    <t>015533076408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ابن الهيثم المسعدين مساكن</t>
+  </si>
+  <si>
+    <t>اية الخليفي</t>
+  </si>
+  <si>
+    <t>015797023916</t>
   </si>
   <si>
     <t>أكودة</t>
   </si>
   <si>
-    <t>ندين عبد السلام</t>
+    <t>خولة مزريقي</t>
   </si>
   <si>
-    <t>017604038532</t>
+    <t>015874061619</t>
   </si>
   <si>
-    <t>843202</t>
+    <t>البرانصية</t>
   </si>
   <si>
-    <t>843203</t>
+    <t xml:space="preserve">  طنطانة أكودة</t>
   </si>
   <si>
-    <t>مساكن</t>
+    <t>ياسمين القرقني</t>
   </si>
   <si>
-    <t>رنيم لعميري</t>
+    <t>النجاح مساكن</t>
   </si>
   <si>
-    <t>017264024331</t>
+    <t xml:space="preserve">  بطحاء السوق مساكن</t>
   </si>
   <si>
-    <t>845405</t>
+    <t>mochkla uid</t>
   </si>
   <si>
-    <t>842825</t>
+    <t>اسلام ذويبي</t>
   </si>
   <si>
-    <t>حي الرياض</t>
+    <t>016007046494</t>
   </si>
   <si>
-    <t>ناريمان بوعلودة</t>
+    <t>الخروع أولاد حفوز</t>
   </si>
   <si>
-    <t>017394035350</t>
+    <t xml:space="preserve">  خزامة الغربية</t>
   </si>
   <si>
-    <t>845409</t>
+    <t xml:space="preserve">محمد يحي قرمة </t>
   </si>
   <si>
-    <t>842926</t>
+    <t>16037064762</t>
   </si>
   <si>
-    <t xml:space="preserve">سوسة المدينة </t>
+    <t>أخ بالمدرسة</t>
   </si>
   <si>
-    <t>آدم مامني</t>
+    <t>النفيضة</t>
   </si>
   <si>
-    <t>017420055396</t>
+    <t>رحمة ثابوتي</t>
   </si>
   <si>
-    <t>842412</t>
+    <t>016184024210</t>
   </si>
   <si>
-    <t>842915</t>
+    <t xml:space="preserve"> فرحات حشاد النفيضة</t>
   </si>
   <si>
-    <t>موافقة المدير</t>
+    <t>سليم محمدي</t>
   </si>
   <si>
-    <t xml:space="preserve">خارج الولاية </t>
+    <t>016303069882</t>
   </si>
   <si>
-    <t>اسيل بن صالح</t>
+    <t xml:space="preserve">  حشاد أكودة</t>
   </si>
   <si>
-    <t>017194039437</t>
+    <t>رماس الحطماني</t>
   </si>
   <si>
-    <t>لم يتم تحديد المدرسة</t>
+    <t>016265057505</t>
   </si>
   <si>
-    <t xml:space="preserve">ليان أبو الخير </t>
+    <t xml:space="preserve"> وادي لاية مساكن</t>
   </si>
   <si>
-    <t>017428061536</t>
-  </si>
-  <si>
-    <t>مدرسة خاصة</t>
-  </si>
-  <si>
-    <t>ميار الدائم</t>
-  </si>
-  <si>
-    <t>017086069242</t>
-  </si>
-  <si>
-    <t>849801</t>
-  </si>
-  <si>
-    <t>842619</t>
-  </si>
-  <si>
-    <t>اسراء الصغير</t>
-  </si>
-  <si>
-    <t>015889087323</t>
-  </si>
-  <si>
-    <t>القلعة الكبرى</t>
-  </si>
-  <si>
-    <t>ايلاف ابن الحاج</t>
-  </si>
-  <si>
-    <t>016680073015</t>
+    <t xml:space="preserve">  النهوض  مساكن</t>
   </si>
   <si>
     <t>سوسة</t>
   </si>
   <si>
-    <t>إسكندر بامري</t>
+    <t>أريج الكناني</t>
   </si>
   <si>
-    <t>016668043092</t>
+    <t>016099044934</t>
   </si>
   <si>
-    <t>أخ  مرسم بالمدرسة</t>
+    <t xml:space="preserve">  الفتح حي الرياض</t>
   </si>
   <si>
-    <t xml:space="preserve">إياد المزوغي </t>
+    <t xml:space="preserve">العمارات الشمالية </t>
   </si>
   <si>
-    <t>016590060853</t>
+    <t>أحمد مثلوثي</t>
   </si>
   <si>
-    <t>أنس البوعلاقي</t>
+    <t>016386011451</t>
   </si>
   <si>
-    <t>016323074058</t>
+    <t>محمد أمين التليلي</t>
   </si>
   <si>
-    <t>سهلول</t>
+    <t>017702056628</t>
   </si>
   <si>
-    <t>تسنيم حجلاوي</t>
+    <t>حي الشباب</t>
   </si>
   <si>
-    <t>016182044905</t>
+    <t>باسم بنور</t>
+  </si>
+  <si>
+    <t>015891058645</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>المدرسة المرغوب فيها غير مذكورة</t>
+  </si>
+  <si>
+    <t>رسيل العطاوي</t>
+  </si>
+  <si>
+    <t>015235019050</t>
+  </si>
+  <si>
+    <t>الصفايا</t>
+  </si>
+  <si>
+    <t>حيّ النور مساكن</t>
+  </si>
+  <si>
+    <t>رسلان العطاوي</t>
+  </si>
+  <si>
+    <t>014731024733</t>
+  </si>
+  <si>
+    <t>يوسف الزهاني</t>
+  </si>
+  <si>
+    <t>016094061457</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> نهج الغزالي </t>
+  </si>
+  <si>
+    <t>ليليا بن عمر</t>
+  </si>
+  <si>
+    <t>017628036029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الإمام الشافعي مساكن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الحي الجديد مساكن</t>
+  </si>
+  <si>
+    <t>دعاء مزريقي</t>
+  </si>
+  <si>
+    <t>016353004068</t>
+  </si>
+  <si>
+    <t>البرانصة</t>
+  </si>
+  <si>
+    <t>أريج شواري</t>
+  </si>
+  <si>
+    <t>016449057919</t>
+  </si>
+  <si>
+    <t>السلام الرياض</t>
+  </si>
+  <si>
+    <t>علي رمضان</t>
+  </si>
+  <si>
+    <t>015293059002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سيدي عبار مساكن</t>
+  </si>
+  <si>
+    <t>محمد سليم الوريمي</t>
+  </si>
+  <si>
+    <t>016101026057</t>
+  </si>
+  <si>
+    <t>الغاء النقلة والإبقاء بالمؤسسة الخاصة القادة</t>
+  </si>
+  <si>
+    <t>رتاج صعايني</t>
+  </si>
+  <si>
+    <t>016348014430</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الأمل حي الرياض</t>
+  </si>
+  <si>
+    <t>سوسة المدينة</t>
+  </si>
+  <si>
+    <t>إسراء  شلبية</t>
+  </si>
+  <si>
+    <t>قرار قاضي الاسرة</t>
+  </si>
+  <si>
+    <t>الاء زروق</t>
+  </si>
+  <si>
+    <t>016318031124</t>
+  </si>
+  <si>
+    <t>الحكيم قرول</t>
+  </si>
+  <si>
+    <t>أحمد زروق</t>
+  </si>
+  <si>
+    <t>016318030821</t>
+  </si>
+  <si>
+    <t>ياسمين التليلي</t>
+  </si>
+  <si>
+    <t>015862068295</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الوفاء سهلول 2</t>
+  </si>
+  <si>
+    <t>عمر الزهاني</t>
+  </si>
+  <si>
+    <t>017244036469</t>
+  </si>
+  <si>
+    <t>سيدي بوعلي</t>
+  </si>
+  <si>
+    <t>ليان الشايب</t>
+  </si>
+  <si>
+    <t>017589047281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ابن خلدون سيدي بوعلي</t>
+  </si>
+  <si>
+    <t>شهد موسى</t>
+  </si>
+  <si>
+    <t>017431023571</t>
+  </si>
+  <si>
+    <t>الرشارشة 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الجمهورية الزاوية</t>
+  </si>
+  <si>
+    <t>سامر كحلول</t>
+  </si>
+  <si>
+    <t>16366022218</t>
+  </si>
+  <si>
+    <t>مرام زروق</t>
+  </si>
+  <si>
+    <t>017174017627</t>
   </si>
 </sst>
 </file>
@@ -361,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -376,17 +628,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +872,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.63"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
+    <col customWidth="1" min="2" max="2" width="13.25"/>
     <col customWidth="1" min="3" max="3" width="16.88"/>
     <col customWidth="1" min="4" max="4" width="20.75"/>
     <col customWidth="1" min="5" max="5" width="19.63"/>
@@ -643,383 +889,1271 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+      <c r="D1" s="2">
+        <v>6.0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
+      <c r="D3" s="2">
+        <v>6.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
@@ -8695,290 +9829,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
@@ -24948,134 +25884,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3">
-        <v>842617.0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="3">
-        <v>843402.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="3">
-        <v>849801.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>842602.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="3">
-        <v>844305.0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>842926.0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
@@ -25286,7 +26132,7 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -26374,7 +27220,7 @@
       <c r="F167" s="4"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="8"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="5"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -26382,7 +27228,7 @@
       <c r="F168" s="4"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="8"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="5"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -26390,7 +27236,7 @@
       <c r="F169" s="4"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="8"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="5"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -26398,7 +27244,7 @@
       <c r="F170" s="4"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="8"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="5"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -26406,7 +27252,7 @@
       <c r="F171" s="4"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="8"/>
+      <c r="A172" s="7"/>
       <c r="B172" s="5"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -26414,7 +27260,7 @@
       <c r="F172" s="4"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="8"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="5"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -26422,7 +27268,7 @@
       <c r="F173" s="4"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="8"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="5"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -26430,7 +27276,7 @@
       <c r="F174" s="4"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="8"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="5"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -26438,7 +27284,7 @@
       <c r="F175" s="4"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="8"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="5"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -26446,7 +27292,7 @@
       <c r="F176" s="4"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="8"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="5"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -26454,7 +27300,7 @@
       <c r="F177" s="4"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="8"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="5"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -26462,7 +27308,7 @@
       <c r="F178" s="4"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="8"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="5"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -26470,7 +27316,7 @@
       <c r="F179" s="4"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="8"/>
+      <c r="A180" s="7"/>
       <c r="B180" s="5"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -26478,7 +27324,7 @@
       <c r="F180" s="4"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="8"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -26486,7 +27332,7 @@
       <c r="F181" s="4"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="8"/>
+      <c r="A182" s="7"/>
       <c r="B182" s="5"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -26494,7 +27340,7 @@
       <c r="F182" s="4"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="8"/>
+      <c r="A183" s="7"/>
       <c r="B183" s="5"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -26502,7 +27348,7 @@
       <c r="F183" s="4"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="8"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="5"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -26510,7 +27356,7 @@
       <c r="F184" s="4"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="8"/>
+      <c r="A185" s="7"/>
       <c r="B185" s="5"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -26518,7 +27364,7 @@
       <c r="F185" s="4"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="8"/>
+      <c r="A186" s="7"/>
       <c r="B186" s="5"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -26526,7 +27372,7 @@
       <c r="F186" s="4"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="8"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="5"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -26534,7 +27380,7 @@
       <c r="F187" s="4"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="8"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="5"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -26542,7 +27388,7 @@
       <c r="F188" s="4"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="8"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="5"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -26550,7 +27396,7 @@
       <c r="F189" s="4"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="8"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="5"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -26558,7 +27404,7 @@
       <c r="F190" s="4"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="8"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="5"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -26566,7 +27412,7 @@
       <c r="F191" s="4"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="8"/>
+      <c r="A192" s="7"/>
       <c r="B192" s="5"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -26574,7 +27420,7 @@
       <c r="F192" s="4"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="8"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -26582,7 +27428,7 @@
       <c r="F193" s="4"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="8"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="5"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -26590,7 +27436,7 @@
       <c r="F194" s="4"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="8"/>
+      <c r="A195" s="7"/>
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -26598,7 +27444,7 @@
       <c r="F195" s="4"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="8"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="5"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -26606,7 +27452,7 @@
       <c r="F196" s="4"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="8"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="5"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -26614,7 +27460,7 @@
       <c r="F197" s="4"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="8"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="5"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -26622,7 +27468,7 @@
       <c r="F198" s="4"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="8"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="5"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -26630,7 +27476,7 @@
       <c r="F199" s="4"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="8"/>
+      <c r="A200" s="7"/>
       <c r="B200" s="5"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -26638,7 +27484,7 @@
       <c r="F200" s="4"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="8"/>
+      <c r="A201" s="7"/>
       <c r="B201" s="5"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -26646,7 +27492,7 @@
       <c r="F201" s="4"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="8"/>
+      <c r="A202" s="7"/>
       <c r="B202" s="5"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -26654,7 +27500,7 @@
       <c r="F202" s="4"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="8"/>
+      <c r="A203" s="7"/>
       <c r="B203" s="5"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -26662,7 +27508,7 @@
       <c r="F203" s="4"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="8"/>
+      <c r="A204" s="7"/>
       <c r="B204" s="5"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -26670,7 +27516,7 @@
       <c r="F204" s="4"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="8"/>
+      <c r="A205" s="7"/>
       <c r="B205" s="5"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -26678,7 +27524,7 @@
       <c r="F205" s="4"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="8"/>
+      <c r="A206" s="7"/>
       <c r="B206" s="5"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -26686,7 +27532,7 @@
       <c r="F206" s="4"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="8"/>
+      <c r="A207" s="7"/>
       <c r="B207" s="5"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -26694,7 +27540,7 @@
       <c r="F207" s="4"/>
     </row>
     <row r="208" ht="21.75" customHeight="1">
-      <c r="A208" s="8"/>
+      <c r="A208" s="7"/>
       <c r="B208" s="5"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -26702,7 +27548,7 @@
       <c r="F208" s="4"/>
     </row>
     <row r="209" ht="21.75" customHeight="1">
-      <c r="A209" s="8"/>
+      <c r="A209" s="7"/>
       <c r="B209" s="5"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -26710,7 +27556,7 @@
       <c r="F209" s="4"/>
     </row>
     <row r="210" ht="21.75" customHeight="1">
-      <c r="A210" s="8"/>
+      <c r="A210" s="7"/>
       <c r="B210" s="5"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -26718,7 +27564,7 @@
       <c r="F210" s="4"/>
     </row>
     <row r="211" ht="21.75" customHeight="1">
-      <c r="A211" s="8"/>
+      <c r="A211" s="7"/>
       <c r="B211" s="5"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -26726,7 +27572,7 @@
       <c r="F211" s="4"/>
     </row>
     <row r="212" ht="21.75" customHeight="1">
-      <c r="A212" s="8"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="5"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -26734,7 +27580,7 @@
       <c r="F212" s="4"/>
     </row>
     <row r="213" ht="21.75" customHeight="1">
-      <c r="A213" s="8"/>
+      <c r="A213" s="7"/>
       <c r="B213" s="5"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -26742,7 +27588,7 @@
       <c r="F213" s="4"/>
     </row>
     <row r="214" ht="21.75" customHeight="1">
-      <c r="A214" s="8"/>
+      <c r="A214" s="7"/>
       <c r="B214" s="5"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -26750,7 +27596,7 @@
       <c r="F214" s="4"/>
     </row>
     <row r="215" ht="28.5" customHeight="1">
-      <c r="A215" s="8"/>
+      <c r="A215" s="7"/>
       <c r="B215" s="5"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -26758,7 +27604,7 @@
       <c r="F215" s="4"/>
     </row>
     <row r="216" ht="21.75" customHeight="1">
-      <c r="A216" s="8"/>
+      <c r="A216" s="7"/>
       <c r="B216" s="5"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -26766,7 +27612,7 @@
       <c r="F216" s="4"/>
     </row>
     <row r="217" ht="21.75" customHeight="1">
-      <c r="A217" s="8"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="5"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -26774,7 +27620,7 @@
       <c r="F217" s="4"/>
     </row>
     <row r="218" ht="21.75" customHeight="1">
-      <c r="A218" s="8"/>
+      <c r="A218" s="7"/>
       <c r="B218" s="5"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -26782,7 +27628,7 @@
       <c r="F218" s="4"/>
     </row>
     <row r="219" ht="21.75" customHeight="1">
-      <c r="A219" s="8"/>
+      <c r="A219" s="7"/>
       <c r="B219" s="5"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -26790,7 +27636,7 @@
       <c r="F219" s="4"/>
     </row>
     <row r="220" ht="21.75" customHeight="1">
-      <c r="A220" s="8"/>
+      <c r="A220" s="7"/>
       <c r="B220" s="5"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -33065,30 +33911,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="3">
-        <v>843004.0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
